--- a/artfynd/A 56888-2022.xlsx
+++ b/artfynd/A 56888-2022.xlsx
@@ -1773,7 +1773,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107357708</v>
+        <v>107357712</v>
       </c>
       <c r="B11" t="n">
         <v>56395</v>
@@ -1806,16 +1806,12 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1825,10 +1821,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>422387.2765512859</v>
+        <v>421926.4665079587</v>
       </c>
       <c r="R11" t="n">
-        <v>7049729.271068533</v>
+        <v>7050030.281593022</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1871,6 +1867,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1897,7 +1898,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107357712</v>
+        <v>107357711</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1935,7 +1936,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1945,10 +1946,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>421926.4665079587</v>
+        <v>421929.8157829407</v>
       </c>
       <c r="R12" t="n">
-        <v>7050030.281593022</v>
+        <v>7050021.285223413</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,7 +2023,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107357711</v>
+        <v>107357705</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2060,7 +2061,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2070,10 +2071,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>421929.8157829407</v>
+        <v>421382.2179690556</v>
       </c>
       <c r="R13" t="n">
-        <v>7050021.285223413</v>
+        <v>7050382.422117869</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2147,7 +2148,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107357705</v>
+        <v>107357714</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2185,7 +2186,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2195,10 +2196,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>421382.2179690556</v>
+        <v>421714.3643756237</v>
       </c>
       <c r="R14" t="n">
-        <v>7050382.422117869</v>
+        <v>7050134.446237801</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2272,7 +2273,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107357714</v>
+        <v>107357715</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2310,7 +2311,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2320,10 +2321,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>421714.3643756237</v>
+        <v>421720.3381778797</v>
       </c>
       <c r="R15" t="n">
-        <v>7050134.446237801</v>
+        <v>7050141.430032426</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2397,7 +2398,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107357709</v>
+        <v>107357710</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2445,10 +2446,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>422308.8881526825</v>
+        <v>422003.2174995458</v>
       </c>
       <c r="R16" t="n">
-        <v>7049736.09021227</v>
+        <v>7049957.083066907</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2522,7 +2523,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107357715</v>
+        <v>107357713</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2560,7 +2561,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2570,10 +2571,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>421720.3381778797</v>
+        <v>421707.8525994752</v>
       </c>
       <c r="R17" t="n">
-        <v>7050141.430032426</v>
+        <v>7050105.63680503</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2647,7 +2648,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107357710</v>
+        <v>107357716</v>
       </c>
       <c r="B18" t="n">
         <v>56395</v>
@@ -2695,10 +2696,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>422003.2174995458</v>
+        <v>421633.682578478</v>
       </c>
       <c r="R18" t="n">
-        <v>7049957.083066907</v>
+        <v>7050192.592104986</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2772,10 +2773,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107357713</v>
+        <v>105221881</v>
       </c>
       <c r="B19" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2788,16 +2789,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2810,23 +2811,23 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Djupsjö, Jmt</t>
+          <t>Djupsjö NV, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>421707.8525994752</v>
+        <v>422185.3756590126</v>
       </c>
       <c r="R19" t="n">
-        <v>7050105.63680503</v>
+        <v>7049959.747113227</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2866,11 +2867,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2885,22 +2881,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre, Johan Råghall, Lisa Gideonsson</t>
+          <t>Johan Råghall, Benny Öwre, Lisa Gideonsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107357716</v>
+        <v>105221887</v>
       </c>
       <c r="B20" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2913,16 +2909,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2941,17 +2937,17 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Djupsjö, Jmt</t>
+          <t>Djupsjö NV, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>421633.682578478</v>
+        <v>421493.4590253821</v>
       </c>
       <c r="R20" t="n">
-        <v>7050192.592104986</v>
+        <v>7050441.61621454</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2991,11 +2987,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3010,22 +3001,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Johan Råghall</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre, Johan Råghall, Lisa Gideonsson</t>
+          <t>Johan Råghall, Benny Öwre, Lisa Gideonsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107357720</v>
+        <v>107357708</v>
       </c>
       <c r="B21" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3038,16 +3029,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3055,10 +3046,18 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3066,10 +3065,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>422304.9171123825</v>
+        <v>422387.2765512859</v>
       </c>
       <c r="R21" t="n">
-        <v>7049737.970285944</v>
+        <v>7049729.271068533</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3112,11 +3111,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3143,10 +3137,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>105221881</v>
+        <v>107357709</v>
       </c>
       <c r="B22" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3159,16 +3153,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3187,17 +3181,17 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Djupsjö NV, Jmt</t>
+          <t>Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>422185.3756590126</v>
+        <v>422308.8881526825</v>
       </c>
       <c r="R22" t="n">
-        <v>7049959.747113227</v>
+        <v>7049736.09021227</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3237,6 +3231,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3251,19 +3250,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Johan Råghall, Benny Öwre, Lisa Gideonsson</t>
+          <t>Benny Öwre, Johan Råghall, Lisa Gideonsson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>105221887</v>
+        <v>107357720</v>
       </c>
       <c r="B23" t="n">
         <v>56411</v>
@@ -3299,25 +3298,21 @@
       <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Djupsjö NV, Jmt</t>
+          <t>Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>421493.4590253821</v>
+        <v>422304.9171123825</v>
       </c>
       <c r="R23" t="n">
-        <v>7050441.61621454</v>
+        <v>7049737.970285944</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3357,6 +3352,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3371,12 +3371,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Johan Råghall</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Johan Råghall, Benny Öwre, Lisa Gideonsson</t>
+          <t>Benny Öwre, Johan Råghall, Lisa Gideonsson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
